--- a/WEBStudio.xlsx
+++ b/WEBStudio.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleksandr.Filin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HTML\Projects\goit-markup-hw-07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCD33A5-F650-4333-9F45-D98861C498A0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{BAB8BDD6-4EAD-4993-8A46-9E301912BAA8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>HTML</t>
   </si>
@@ -70,12 +69,15 @@
   </si>
   <si>
     <t>modal window</t>
+  </si>
+  <si>
+    <t>https://olexandrfilin.github.io/goit-markup-hw-06/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,7 +261,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -570,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC369A9-01DF-4E25-A212-4B751F5F5A2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +768,9 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
